--- a/data/source_informes1.xlsx
+++ b/data/source_informes1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ignaciopastorebenaim/Documents/Python/informes-KBZA/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583BF407-F38E-5747-A3C3-C7B396AFC9DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8316E01-D609-D94C-9185-4B581F3DADC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{7F3E787D-03D8-4E4C-8EC3-6093DD8D59D3}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{7F3E787D-03D8-4E4C-8EC3-6093DD8D59D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Jugadores" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="139">
   <si>
     <t>Nacionalidad</t>
   </si>
@@ -63,24 +63,6 @@
     <t>Aceleraciones</t>
   </si>
   <si>
-    <t>Facundo Bernal</t>
-  </si>
-  <si>
-    <t>Uruguay</t>
-  </si>
-  <si>
-    <t>Defensor Sporting</t>
-  </si>
-  <si>
-    <t>Sub20 Uruguay</t>
-  </si>
-  <si>
-    <t>Derecha</t>
-  </si>
-  <si>
-    <t>Jose Bonanata</t>
-  </si>
-  <si>
     <t>Seleccion</t>
   </si>
   <si>
@@ -180,15 +162,6 @@
     <t>Velocidad</t>
   </si>
   <si>
-    <t>Argentina</t>
-  </si>
-  <si>
-    <t>1.67</t>
-  </si>
-  <si>
-    <t>1.87</t>
-  </si>
-  <si>
     <t>Agustin Salem</t>
   </si>
   <si>
@@ -198,9 +171,6 @@
     <t>Pase_Interior_Ofensivo</t>
   </si>
   <si>
-    <t>Volante Contencion</t>
-  </si>
-  <si>
     <t>Volante Ofensivo</t>
   </si>
   <si>
@@ -228,9 +198,6 @@
     <t>Descripcion Johan Rojas Video 2</t>
   </si>
   <si>
-    <t>Descripcion Facundo Bernal Video 1</t>
-  </si>
-  <si>
     <t>Cantidad_Videos</t>
   </si>
   <si>
@@ -243,15 +210,9 @@
     <t>Nombre_Foto_Jugador</t>
   </si>
   <si>
-    <t>Diego Armando Maradona</t>
-  </si>
-  <si>
     <t>Boca Juniors</t>
   </si>
   <si>
-    <t>Descripcion Dieguito Video 1</t>
-  </si>
-  <si>
     <t>CD La Equidad</t>
   </si>
   <si>
@@ -270,30 +231,15 @@
     <t>Sueldo</t>
   </si>
   <si>
-    <t>21/4/26</t>
-  </si>
-  <si>
     <t>1/5/25</t>
   </si>
   <si>
-    <t>2/3/24</t>
-  </si>
-  <si>
-    <t>10/05/90</t>
-  </si>
-  <si>
     <t>27/7/03</t>
   </si>
   <si>
-    <t>23/6/00</t>
-  </si>
-  <si>
     <t>Pierna Habil</t>
   </si>
   <si>
-    <t>Juveniles</t>
-  </si>
-  <si>
     <t>Categoria</t>
   </si>
   <si>
@@ -321,48 +267,18 @@
     <t>Otras_Observaciones</t>
   </si>
   <si>
-    <t xml:space="preserve">Aspectos técnicos de Bernal </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aspectos técnicos de Maradona </t>
-  </si>
-  <si>
     <t xml:space="preserve">Aspectos técnicos de Rojas </t>
   </si>
   <si>
-    <t xml:space="preserve">Aspectos tácticos de Bernal </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aspectos tácticos de Maradona </t>
-  </si>
-  <si>
     <t xml:space="preserve">Aspectos tácticos de Rojas </t>
   </si>
   <si>
-    <t xml:space="preserve">Aspectos físicos de Bernal </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aspectos físicos de Maradona </t>
-  </si>
-  <si>
     <t xml:space="preserve">Aspectos físicos de Rojas </t>
   </si>
   <si>
-    <t xml:space="preserve">Personalidad de Bernal </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Personalidad de Maradona </t>
-  </si>
-  <si>
     <t xml:space="preserve">Personalidad técnicos de Rojas </t>
   </si>
   <si>
-    <t xml:space="preserve">Otras observaciones de Bernal </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Otras observaciones de Maradona </t>
-  </si>
-  <si>
     <t xml:space="preserve">Otras observaciones de Rojas </t>
   </si>
   <si>
@@ -381,51 +297,24 @@
     <t>Aspectos_Fisicos</t>
   </si>
   <si>
-    <t>Argenitos vs Boca</t>
-  </si>
-  <si>
-    <t>Boca vs River</t>
-  </si>
-  <si>
     <t>Velez vs Chacarita</t>
   </si>
   <si>
-    <t>Argentinos vs Racing</t>
-  </si>
-  <si>
     <t>Velez vs Newels</t>
   </si>
   <si>
-    <t>Defensor_Sporting</t>
-  </si>
-  <si>
     <t>Boca_Juniors</t>
   </si>
   <si>
     <t>CD_La_Equidad</t>
   </si>
   <si>
-    <t>Facundo_Benral</t>
-  </si>
-  <si>
-    <t>Diego_Armando_Maradona</t>
-  </si>
-  <si>
     <t>Johan_Rojas</t>
   </si>
   <si>
     <t>JRojas_Carrera</t>
   </si>
   <si>
-    <t>Descripcion Facundo Bernal Video 2</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=3uSIV9-gm8U</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=bVVTvvwwTjU&amp;t=6s</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=X16KCiIP0yo&amp;t=8s</t>
   </si>
   <si>
@@ -502,9 +391,6 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=MjY3rue8mR0</t>
-  </si>
-  <si>
-    <t>alineacion_Boca</t>
   </si>
   <si>
     <t>Walter Ribonetto</t>
@@ -614,13 +500,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -952,10 +835,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC1F602D-DF59-584F-8375-3BF517980F50}">
-  <dimension ref="A1:BQ4"/>
+  <dimension ref="A1:BQ3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AY3" sqref="AY3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:BV2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -969,9 +852,9 @@
     <col min="8" max="8" width="10.83203125" style="1"/>
     <col min="9" max="9" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.83203125" style="1"/>
-    <col min="11" max="11" width="16.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
@@ -1027,49 +910,49 @@
   <sheetData>
     <row r="1" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>131</v>
+        <v>94</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="4" t="s">
-        <v>17</v>
+      <c r="K1" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>130</v>
+        <v>10</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>3</v>
@@ -1078,759 +961,370 @@
         <v>4</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="W1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="AS1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="AV1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="AW1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AX1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="BB1" s="1" t="s">
+      <c r="J2" s="1">
+        <v>75</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L2" s="1">
+        <v>28</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="N2" s="2">
+        <v>143533</v>
+      </c>
+      <c r="O2" s="1">
+        <v>4</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>80</v>
+      </c>
+      <c r="R2" s="1">
+        <v>75</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T2" s="1">
         <v>90</v>
       </c>
-      <c r="BC1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BK1" s="1" t="s">
+      <c r="U2" s="1">
+        <v>85</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="W2" s="1">
+        <v>70</v>
+      </c>
+      <c r="X2" s="1">
+        <v>75</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>50</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>40</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>55</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>95</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>35</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>80</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH2" s="1">
+        <v>85</v>
+      </c>
+      <c r="AI2" s="1">
+        <v>60</v>
+      </c>
+      <c r="AJ2" s="1">
         <v>65</v>
       </c>
-      <c r="BL1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:69" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="2">
-        <v>2008</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="1">
-        <v>80</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="L2" s="1">
-        <v>20</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="N2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>6</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>90</v>
-      </c>
-      <c r="R2" s="1">
-        <v>90</v>
-      </c>
-      <c r="S2" s="1">
-        <v>100</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="V2" s="1">
+      <c r="AK2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AP2" s="1">
         <v>70</v>
       </c>
-      <c r="W2" s="1">
-        <v>80</v>
-      </c>
-      <c r="X2" s="1">
-        <v>60</v>
-      </c>
-      <c r="Y2" s="1">
-        <v>70</v>
-      </c>
-      <c r="Z2" s="1">
-        <v>80</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF2" s="1">
-        <v>90</v>
-      </c>
-      <c r="AG2" s="1">
-        <v>60</v>
-      </c>
-      <c r="AH2" s="1">
-        <v>90</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AN2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AP2" s="1">
-        <v>90</v>
-      </c>
       <c r="AQ2" s="1">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="AR2" s="1">
         <v>80</v>
       </c>
       <c r="AS2" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AU2" s="1">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AV2" s="1">
         <v>70</v>
       </c>
-      <c r="AW2" s="1" t="s">
-        <v>32</v>
+      <c r="AW2" s="1">
+        <v>90</v>
       </c>
       <c r="AX2" s="1" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="AY2" s="1" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="AZ2" s="1" t="s">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="BA2" s="1" t="s">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="BB2" s="1" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="BC2" s="1" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="BD2" s="1" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="BE2" s="1" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="BF2" s="1" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="BG2" s="1" t="s">
-        <v>128</v>
+        <v>92</v>
       </c>
       <c r="BH2" s="1">
         <v>2</v>
       </c>
       <c r="BI2" s="1" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="BJ2" s="1" t="s">
-        <v>128</v>
+        <v>92</v>
       </c>
       <c r="BK2" s="1" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="BL2" s="1" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="BM2" s="1" t="s">
-        <v>128</v>
+        <v>92</v>
       </c>
       <c r="BN2" s="1" t="s">
-        <v>126</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" s="1">
-        <v>2009</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J3" s="1">
-        <v>75</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="L3" s="1">
-        <v>28</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="N3" s="3">
-        <v>500000</v>
-      </c>
-      <c r="O3" s="1">
-        <v>30</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>80</v>
-      </c>
-      <c r="R3" s="1">
-        <v>75</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T3" s="1">
-        <v>90</v>
-      </c>
-      <c r="U3" s="1">
-        <v>85</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="W3" s="1">
-        <v>70</v>
-      </c>
-      <c r="X3" s="1">
-        <v>75</v>
-      </c>
-      <c r="Y3" s="1">
-        <v>50</v>
-      </c>
-      <c r="Z3" s="1">
-        <v>40</v>
-      </c>
-      <c r="AA3" s="1">
-        <v>55</v>
-      </c>
-      <c r="AB3" s="1">
-        <v>95</v>
-      </c>
-      <c r="AC3" s="1">
-        <v>35</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF3" s="1">
-        <v>80</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH3" s="1">
-        <v>85</v>
-      </c>
-      <c r="AI3" s="1">
-        <v>60</v>
-      </c>
-      <c r="AJ3" s="1">
-        <v>65</v>
-      </c>
-      <c r="AK3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AM3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AN3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AO3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AP3" s="1">
-        <v>70</v>
-      </c>
-      <c r="AQ3" s="1">
-        <v>95</v>
-      </c>
-      <c r="AR3" s="1">
-        <v>80</v>
-      </c>
-      <c r="AS3" s="1">
-        <v>30</v>
-      </c>
-      <c r="AT3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AU3" s="1">
-        <v>80</v>
-      </c>
-      <c r="AV3" s="1">
-        <v>70</v>
-      </c>
-      <c r="AW3" s="1">
-        <v>90</v>
-      </c>
-      <c r="AX3" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AY3" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AZ3" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="BA3" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="BB3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="BC3" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="BD3" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="BE3" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="BF3" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="BG3" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="BH3" s="1">
-        <v>1</v>
-      </c>
-      <c r="BI3" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="BJ3" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="BK3" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J4" s="1">
-        <v>75</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="L4" s="1">
-        <v>28</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="N4" s="3">
-        <v>143533</v>
-      </c>
-      <c r="O4" s="1">
-        <v>4</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>80</v>
-      </c>
-      <c r="R4" s="1">
-        <v>75</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T4" s="1">
-        <v>90</v>
-      </c>
-      <c r="U4" s="1">
-        <v>85</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="W4" s="1">
-        <v>70</v>
-      </c>
-      <c r="X4" s="1">
-        <v>75</v>
-      </c>
-      <c r="Y4" s="1">
-        <v>50</v>
-      </c>
-      <c r="Z4" s="1">
-        <v>40</v>
-      </c>
-      <c r="AA4" s="1">
-        <v>55</v>
-      </c>
-      <c r="AB4" s="1">
-        <v>95</v>
-      </c>
-      <c r="AC4" s="1">
-        <v>35</v>
-      </c>
-      <c r="AD4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AE4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF4" s="1">
-        <v>80</v>
-      </c>
-      <c r="AG4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH4" s="1">
-        <v>85</v>
-      </c>
-      <c r="AI4" s="1">
-        <v>60</v>
-      </c>
-      <c r="AJ4" s="1">
-        <v>65</v>
-      </c>
-      <c r="AK4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AM4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AN4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AO4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AP4" s="1">
-        <v>70</v>
-      </c>
-      <c r="AQ4" s="1">
-        <v>95</v>
-      </c>
-      <c r="AR4" s="1">
-        <v>80</v>
-      </c>
-      <c r="AS4" s="1">
-        <v>30</v>
-      </c>
-      <c r="AT4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AU4" s="1">
-        <v>80</v>
-      </c>
-      <c r="AV4" s="1">
-        <v>70</v>
-      </c>
-      <c r="AW4" s="1">
-        <v>90</v>
-      </c>
-      <c r="AX4" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="AY4" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AZ4" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="BA4" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="BB4" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="BC4" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="BD4" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="BE4" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="BF4" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="BG4" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="BH4" s="1">
-        <v>2</v>
-      </c>
-      <c r="BI4" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="BJ4" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="BK4" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BL4" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="BM4" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="BN4" s="1" t="s">
-        <v>62</v>
-      </c>
+      <c r="M3" s="4"/>
+      <c r="N3" s="2"/>
+      <c r="BG3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <ignoredErrors>
-    <ignoredError sqref="M3" twoDigitTextYear="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -1838,14 +1332,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B71EAA4-DB9A-434D-BCE1-A1FF79FB8ADD}">
   <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.1640625" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.5" customWidth="1"/>
@@ -1853,191 +1347,185 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>132</v>
+        <v>95</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="D1" t="s">
-        <v>163</v>
+        <v>125</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>134</v>
+        <v>10</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>97</v>
       </c>
       <c r="G1" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>151</v>
+        <v>114</v>
       </c>
       <c r="I1" t="s">
-        <v>166</v>
+        <v>128</v>
       </c>
       <c r="J1" t="s">
-        <v>165</v>
+        <v>127</v>
       </c>
       <c r="K1" t="s">
-        <v>138</v>
+        <v>101</v>
       </c>
       <c r="L1" t="s">
-        <v>139</v>
+        <v>102</v>
       </c>
       <c r="M1" t="s">
-        <v>140</v>
+        <v>103</v>
       </c>
       <c r="N1" t="s">
-        <v>141</v>
+        <v>104</v>
       </c>
       <c r="O1" t="s">
-        <v>142</v>
+        <v>105</v>
       </c>
       <c r="P1" t="s">
-        <v>152</v>
+        <v>115</v>
       </c>
       <c r="Q1" t="s">
-        <v>164</v>
+        <v>126</v>
       </c>
       <c r="R1" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="S1" t="s">
-        <v>153</v>
+        <v>116</v>
       </c>
       <c r="T1" t="s">
-        <v>144</v>
+        <v>107</v>
       </c>
       <c r="U1" t="s">
-        <v>145</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>133</v>
+        <v>96</v>
       </c>
       <c r="B2" t="s">
-        <v>135</v>
+        <v>98</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>162</v>
+        <v>57</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="E2">
         <v>50</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>136</v>
+      <c r="F2" s="5" t="s">
+        <v>99</v>
       </c>
       <c r="G2" t="s">
-        <v>146</v>
+        <v>109</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="I2" s="1"/>
       <c r="M2" t="s">
-        <v>147</v>
+        <v>110</v>
       </c>
       <c r="N2" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="O2" t="s">
-        <v>148</v>
+        <v>111</v>
       </c>
       <c r="P2" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="Q2" t="s">
-        <v>149</v>
+        <v>112</v>
       </c>
       <c r="R2" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="S2" t="s">
-        <v>150</v>
-      </c>
-      <c r="T2" t="s">
-        <v>155</v>
-      </c>
-      <c r="U2" t="s">
-        <v>155</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>156</v>
+        <v>118</v>
       </c>
       <c r="B3" t="s">
-        <v>135</v>
+        <v>98</v>
       </c>
       <c r="C3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>161</v>
+        <v>119</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="E3">
         <v>40</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>160</v>
+      <c r="F3" s="5" t="s">
+        <v>122</v>
       </c>
       <c r="G3" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="H3" t="s">
-        <v>157</v>
+        <v>119</v>
       </c>
       <c r="K3" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="L3" t="s">
-        <v>159</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>167</v>
+        <v>129</v>
       </c>
       <c r="B4" t="s">
-        <v>135</v>
+        <v>98</v>
       </c>
       <c r="C4" t="s">
-        <v>168</v>
-      </c>
-      <c r="D4" s="7">
+        <v>130</v>
+      </c>
+      <c r="D4" s="6">
         <v>27345</v>
       </c>
       <c r="E4">
         <v>49</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>169</v>
+      <c r="F4" s="5" t="s">
+        <v>131</v>
       </c>
       <c r="G4" t="s">
-        <v>170</v>
+        <v>132</v>
       </c>
       <c r="H4" t="s">
-        <v>171</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>172</v>
+        <v>133</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>134</v>
       </c>
       <c r="L4" t="s">
-        <v>173</v>
+        <v>135</v>
       </c>
       <c r="T4" t="s">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="U4" t="s">
-        <v>175</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
@@ -2046,7 +1534,7 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="4"/>
+      <c r="F5" s="3"/>
       <c r="G5" s="1"/>
     </row>
   </sheetData>
